--- a/正式赛/论文/code&pic/雷达图数据.xlsx
+++ b/正式赛/论文/code&pic/雷达图数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanghongrui\Desktop\CVal森林碳封存表格工具\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\adam_wen\math_modeling\2022美赛\正式赛\论文\code&amp;pic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5726E83D-F590-4801-A8E2-51DE410FE15B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3DF1A3-74ED-4DD9-A66A-01C2C49B847B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -396,12 +396,20 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="16.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -418,7 +426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -438,7 +446,7 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -458,7 +466,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -478,7 +486,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>3</v>
       </c>

--- a/正式赛/论文/code&pic/雷达图数据.xlsx
+++ b/正式赛/论文/code&pic/雷达图数据.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\adam_wen\math_modeling\2022美赛\正式赛\论文\code&amp;pic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Adam_Wen\math_modeling\2022美赛\正式赛\论文\code&amp;pic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3DF1A3-74ED-4DD9-A66A-01C2C49B847B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCBD236-6E72-48C7-9F3B-6E04AF6B82EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -396,7 +396,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
